--- a/lab4/plots.xlsx
+++ b/lab4/plots.xlsx
@@ -1062,19 +1062,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ThreeSum.java</a:t>
+              <a:t>Runtimes</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> r</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>untime</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> given input length n</a:t>
+              <a:t> for both TwoSum implementations given input length n</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1116,23 +1108,15 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>ThreeSum!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>log(n)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>TwoSumFast.java</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1143,66 +1127,39 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:val>
             <c:numRef>
-              <c:f>ThreeSum!$B$2:$B$7</c:f>
+              <c:f>TwoSumFast!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.3010299956639813</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.6020599913279625</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9030899869919438</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.204119982655925</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5051499783199063</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>ThreeSum!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>85.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>676.4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5471.1</c:v>
+                  <c:v>1E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1210,7 +1167,71 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-54D4-484B-9791-EBD3AE5691FB}"/>
+              <c16:uniqueId val="{00000001-0576-45BC-A3AD-8CB24F958582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>TwoSum.java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>TwoSum!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0576-45BC-A3AD-8CB24F958582}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1293,7 +1314,7 @@
         <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -1337,6 +1358,7 @@
       <c:valAx>
         <c:axId val="383043664"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -1376,7 +1398,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>T(n)</a:t>
+                  <a:t>log(T(n))</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1454,6 +1476,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1526,7 +1580,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>ThreeSumFast.java</a:t>
+              <a:t>ThreeSum.java</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
@@ -1584,7 +1638,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ThreeSumFast!$B$1</c:f>
+              <c:f>ThreeSum!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1646,27 +1700,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ThreeSumFast!$C$2:$C$7</c:f>
+              <c:f>ThreeSum!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.1</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>1.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.3</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9</c:v>
+                  <c:v>85.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.7</c:v>
+                  <c:v>676.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>5471.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,7 +1728,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5E96-4742-9387-92FAE36E838C}"/>
+              <c16:uniqueId val="{00000000-54D4-484B-9791-EBD3AE5691FB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1990,6 +2044,470 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>ThreeSumFast.java</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> r</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>untime</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> given input length n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ThreeSumFast!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>log(n)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ThreeSum!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.204119982655925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5051499783199063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ThreeSumFast!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5E96-4742-9387-92FAE36E838C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383043992"/>
+        <c:axId val="383043664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383043992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383043664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383043664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>T(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383043992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>All</a:t>
             </a:r>
             <a:r>
@@ -2323,6 +2841,551 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-F52C-4B72-9E69-5D6160ED7E4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="383043992"/>
+        <c:axId val="383043664"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="383043992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(n)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.000" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383043664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="383043664"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>log(T(n))</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="383043992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtimes</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> for both ThreeSum implementations given input length n</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>ThreeSumFast.java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>ThreeSum!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.3010299956639813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6020599913279625</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9030899869919438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.204119982655925</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5051499783199063</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ThreeSumFast!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DEA-46D0-B9A3-291F00CE930C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>ThreeSum.java</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>ThreeSum!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>676.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5471.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DEA-46D0-B9A3-291F00CE930C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2836,6 +3899,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -4849,6 +5992,1012 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5415,6 +7564,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5521,6 +7702,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5796,7 +8009,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,7 +8110,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,8 +8311,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/lab4/plots.xlsx
+++ b/lab4/plots.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
   <si>
     <t>n</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>log(n)</t>
+  </si>
+  <si>
+    <t>Ratio with previous</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1074,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1281,7 +1283,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1403,7 +1404,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1478,7 +1478,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8006,15 +8005,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="D1" sqref="D1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8024,8 +8023,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8037,7 +8039,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -8048,8 +8050,12 @@
       <c r="C3">
         <v>1E-4</v>
       </c>
+      <c r="D3">
+        <f>C2/C3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -8060,8 +8066,12 @@
       <c r="C4">
         <v>1E-4</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D8" si="1">C3/C4</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -8072,8 +8082,12 @@
       <c r="C5">
         <v>0.1</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -8084,8 +8098,12 @@
       <c r="C6">
         <v>0.2</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32000</v>
       </c>
@@ -8095,6 +8113,10 @@
       </c>
       <c r="C7">
         <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -8107,15 +8129,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8125,8 +8147,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8138,7 +8163,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -8149,8 +8174,12 @@
       <c r="C3">
         <v>1E-4</v>
       </c>
+      <c r="D3">
+        <f>C2/C3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -8161,8 +8190,12 @@
       <c r="C4">
         <v>1E-4</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="1">C3/C4</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -8173,8 +8206,12 @@
       <c r="C5">
         <v>1E-4</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -8185,8 +8222,12 @@
       <c r="C6">
         <v>1E-4</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32000</v>
       </c>
@@ -8196,6 +8237,10 @@
       </c>
       <c r="C7">
         <v>1E-4</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -8208,15 +8253,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="D1" sqref="D1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8226,8 +8271,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8239,7 +8287,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -8250,8 +8298,12 @@
       <c r="C3">
         <v>1.7</v>
       </c>
+      <c r="D3">
+        <f>C2/C3</f>
+        <v>0.11764705882352942</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -8262,8 +8314,12 @@
       <c r="C4">
         <v>13.5</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="1">C3/C4</f>
+        <v>0.12592592592592591</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -8274,8 +8330,12 @@
       <c r="C5">
         <v>85.7</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.15752625437572929</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -8286,8 +8346,12 @@
       <c r="C6">
         <v>676.4</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.12670017740981668</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32000</v>
       </c>
@@ -8297,6 +8361,10 @@
       </c>
       <c r="C7">
         <v>5471.1</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.12363144523039242</v>
       </c>
     </row>
   </sheetData>
@@ -8309,15 +8377,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O29" sqref="O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8327,8 +8395,11 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1000</v>
       </c>
@@ -8340,7 +8411,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -8351,8 +8422,12 @@
       <c r="C3">
         <v>0.1</v>
       </c>
+      <c r="D3">
+        <f>C2/C3</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4000</v>
       </c>
@@ -8363,8 +8438,12 @@
       <c r="C4">
         <v>0.3</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="1">C3/C4</f>
+        <v>0.33333333333333337</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>8000</v>
       </c>
@@ -8375,8 +8454,12 @@
       <c r="C5">
         <v>0.9</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>16000</v>
       </c>
@@ -8387,8 +8470,12 @@
       <c r="C6">
         <v>3.7</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.24324324324324323</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>32000</v>
       </c>
@@ -8398,6 +8485,10 @@
       </c>
       <c r="C7">
         <v>15</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.24666666666666667</v>
       </c>
     </row>
   </sheetData>
